--- a/Code/Results/Cases/Case_2_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.12884864194649</v>
+        <v>18.3493160628503</v>
       </c>
       <c r="C2">
-        <v>12.81734760206233</v>
+        <v>10.13689606908455</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.266272642378713</v>
+        <v>14.31650721457518</v>
       </c>
       <c r="F2">
-        <v>31.57720385108752</v>
+        <v>42.59027401372364</v>
       </c>
       <c r="G2">
-        <v>39.97727635019731</v>
+        <v>46.13213581801816</v>
       </c>
       <c r="H2">
-        <v>12.55338212039105</v>
+        <v>18.46127899789551</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.688858296461716</v>
+        <v>8.905232056508321</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.963739873843214</v>
+        <v>11.81608460278643</v>
       </c>
       <c r="M2">
-        <v>12.97852874685792</v>
+        <v>17.47772239151322</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.66207298213585</v>
+        <v>17.96304917179411</v>
       </c>
       <c r="C3">
-        <v>12.20678407387321</v>
+        <v>9.880661142585586</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.283244313795162</v>
+        <v>14.33240089419212</v>
       </c>
       <c r="F3">
-        <v>30.91188700878582</v>
+        <v>42.61331257678801</v>
       </c>
       <c r="G3">
-        <v>38.7721582730288</v>
+        <v>46.06539803120612</v>
       </c>
       <c r="H3">
-        <v>12.46881528020625</v>
+        <v>18.50677104642342</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.763249402320885</v>
+        <v>8.924320961054518</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.847196006439427</v>
+        <v>11.818061323912</v>
       </c>
       <c r="M3">
-        <v>12.40871210681633</v>
+        <v>17.40533899344867</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76733979577787</v>
+        <v>17.72568667873684</v>
       </c>
       <c r="C4">
-        <v>11.81732299928113</v>
+        <v>9.718174030785473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.295140517598036</v>
+        <v>14.34285432992622</v>
       </c>
       <c r="F4">
-        <v>30.52678061366839</v>
+        <v>42.63809905264106</v>
       </c>
       <c r="G4">
-        <v>38.06675321950983</v>
+        <v>46.04042980811631</v>
       </c>
       <c r="H4">
-        <v>12.428636049616</v>
+        <v>18.53874886742334</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.809506240840816</v>
+        <v>8.936566704456848</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.777004755420204</v>
+        <v>11.82051042864313</v>
       </c>
       <c r="M4">
-        <v>12.05150262821858</v>
+        <v>17.363613606642</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39746185813666</v>
+        <v>17.62905275092927</v>
       </c>
       <c r="C5">
-        <v>11.65501877675152</v>
+        <v>9.650715248277894</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.300349939320682</v>
+        <v>14.34728925622496</v>
       </c>
       <c r="F5">
-        <v>30.37572275477266</v>
+        <v>42.65087019932982</v>
       </c>
       <c r="G5">
-        <v>37.7880794647292</v>
+        <v>46.03427594200512</v>
       </c>
       <c r="H5">
-        <v>12.41509633778187</v>
+        <v>18.55279405459972</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.828520358502598</v>
+        <v>8.941689534398749</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.748766275899879</v>
+        <v>11.82182014746824</v>
       </c>
       <c r="M5">
-        <v>11.90427508306446</v>
+        <v>17.34730594006519</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.33543732130849</v>
+        <v>17.61301659731319</v>
       </c>
       <c r="C6">
-        <v>11.62785353914137</v>
+        <v>9.639440261716075</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.301236542887374</v>
+        <v>14.34803625747217</v>
       </c>
       <c r="F6">
-        <v>30.35099407158673</v>
+        <v>42.65315194702333</v>
       </c>
       <c r="G6">
-        <v>37.7423389166276</v>
+        <v>46.03349672071391</v>
       </c>
       <c r="H6">
-        <v>12.41301568458376</v>
+        <v>18.55518738816279</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.831688055078731</v>
+        <v>8.942548200809544</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.744099966546256</v>
+        <v>11.82205647982099</v>
       </c>
       <c r="M6">
-        <v>11.8797336081051</v>
+        <v>17.34464042931711</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76239223938897</v>
+        <v>17.72438287266877</v>
       </c>
       <c r="C7">
-        <v>11.81514856022759</v>
+        <v>9.717269221890245</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.295209321257</v>
+        <v>14.34291343151795</v>
       </c>
       <c r="F7">
-        <v>30.52471962430943</v>
+        <v>42.63826048427504</v>
       </c>
       <c r="G7">
-        <v>38.06295924455319</v>
+        <v>46.04033054432315</v>
       </c>
       <c r="H7">
-        <v>12.42844213465095</v>
+        <v>18.53893418478698</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.809761984445604</v>
+        <v>8.936635255160521</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.776622415297899</v>
+        <v>11.82052682861475</v>
       </c>
       <c r="M7">
-        <v>12.04952353128205</v>
+        <v>17.36339084304939</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6333171668784</v>
+        <v>18.21625525604764</v>
       </c>
       <c r="C8">
-        <v>12.60988452899902</v>
+        <v>10.04964736817116</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.271812270416085</v>
+        <v>14.3218434143766</v>
       </c>
       <c r="F8">
-        <v>31.34294486168503</v>
+        <v>42.59600649243534</v>
       </c>
       <c r="G8">
-        <v>39.55464637374597</v>
+        <v>46.10580049838266</v>
       </c>
       <c r="H8">
-        <v>12.52171433440396</v>
+        <v>18.47612306374394</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.714399212809409</v>
+        <v>8.911705265710403</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.923284459298405</v>
+        <v>11.81651040906387</v>
       </c>
       <c r="M8">
-        <v>12.78368106089331</v>
+        <v>17.45220796812588</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02380755112614</v>
+        <v>19.17325635128007</v>
       </c>
       <c r="C9">
-        <v>14.05079935323022</v>
+        <v>10.6583868451902</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.23811592317762</v>
+        <v>14.28601958776148</v>
       </c>
       <c r="F9">
-        <v>33.13306921873351</v>
+        <v>42.59775197119266</v>
       </c>
       <c r="G9">
-        <v>42.74927739025784</v>
+        <v>46.3612102861285</v>
       </c>
       <c r="H9">
-        <v>12.80307233747749</v>
+        <v>18.38519212644782</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.531106578331382</v>
+        <v>8.866958372729947</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.220832101163372</v>
+        <v>11.81838976402655</v>
       </c>
       <c r="M9">
-        <v>14.15847188861518</v>
+        <v>17.64737748847064</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.28623479148032</v>
+        <v>19.86404489104534</v>
       </c>
       <c r="C10">
-        <v>15.03663209674313</v>
+        <v>11.07680972055649</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.221545580454432</v>
+        <v>14.26302577508131</v>
       </c>
       <c r="F10">
-        <v>34.56123688586727</v>
+        <v>42.65076764827555</v>
       </c>
       <c r="G10">
-        <v>45.25540699266874</v>
+        <v>46.62599005964792</v>
       </c>
       <c r="H10">
-        <v>13.07690065552462</v>
+        <v>18.33822563453939</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.397340341839257</v>
+        <v>8.836571099030662</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.444372682650437</v>
+        <v>11.82565347372796</v>
       </c>
       <c r="M10">
-        <v>15.12200817414507</v>
+        <v>17.80276405482154</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.26775671822648</v>
+        <v>20.17411782276275</v>
       </c>
       <c r="C11">
-        <v>15.46944166346398</v>
+        <v>11.26043518074786</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.215984400386697</v>
+        <v>14.2532825567825</v>
       </c>
       <c r="F11">
-        <v>35.23554804027987</v>
+        <v>42.68612100642124</v>
       </c>
       <c r="G11">
-        <v>46.42953519041117</v>
+        <v>46.76302799195534</v>
       </c>
       <c r="H11">
-        <v>13.21755211269595</v>
+        <v>18.32120337644906</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.336340944915144</v>
+        <v>8.823279731754239</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.546929746983178</v>
+        <v>11.83022051798358</v>
       </c>
       <c r="M11">
-        <v>15.5492924054865</v>
+        <v>17.87587321084625</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.6327517579699</v>
+        <v>20.2908184289458</v>
       </c>
       <c r="C12">
-        <v>15.63111805902875</v>
+        <v>11.32896896725866</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.214182346261241</v>
+        <v>14.24969574695224</v>
       </c>
       <c r="F12">
-        <v>35.49445611631476</v>
+        <v>42.7011214666341</v>
       </c>
       <c r="G12">
-        <v>46.87906550419952</v>
+        <v>46.81728448045398</v>
       </c>
       <c r="H12">
-        <v>13.27325062014247</v>
+        <v>18.31538459773125</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.313188910460587</v>
+        <v>8.8183225457941</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.585875312024115</v>
+        <v>11.83213013370555</v>
       </c>
       <c r="M12">
-        <v>15.70945906033327</v>
+        <v>17.90388965895772</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.55443806630289</v>
+        <v>20.26571855874285</v>
       </c>
       <c r="C13">
-        <v>15.59639617256769</v>
+        <v>11.31425404361856</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.214556595496354</v>
+        <v>14.25046366675829</v>
       </c>
       <c r="F13">
-        <v>35.43853669127697</v>
+        <v>42.69781917718402</v>
       </c>
       <c r="G13">
-        <v>46.78203167201561</v>
+        <v>46.8054946735353</v>
       </c>
       <c r="H13">
-        <v>13.26114456978713</v>
+        <v>18.31660984186119</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.318178006728477</v>
+        <v>8.819386794241671</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.577483036205211</v>
+        <v>11.83171087352829</v>
       </c>
       <c r="M13">
-        <v>15.67503765213958</v>
+        <v>17.89784134078404</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.29791805978173</v>
+        <v>20.18373387402394</v>
       </c>
       <c r="C14">
-        <v>15.48278711350956</v>
+        <v>11.26609375181894</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.215829932709735</v>
+        <v>14.25298541071951</v>
       </c>
       <c r="F14">
-        <v>35.25677700090799</v>
+        <v>42.68732280029599</v>
       </c>
       <c r="G14">
-        <v>46.46641954004345</v>
+        <v>46.76744448748209</v>
       </c>
       <c r="H14">
-        <v>13.22208490569284</v>
+        <v>18.32071207796183</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.334437465971654</v>
+        <v>8.822870381620634</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.550131707174115</v>
+        <v>11.83037402052155</v>
       </c>
       <c r="M14">
-        <v>15.56250241944932</v>
+        <v>17.87817159330621</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.13992668439142</v>
+        <v>20.13341911455726</v>
       </c>
       <c r="C15">
-        <v>15.41291050149727</v>
+        <v>11.2364628097135</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.21665008653479</v>
+        <v>14.25454342098532</v>
       </c>
       <c r="F15">
-        <v>35.14590866405889</v>
+        <v>42.68110340257181</v>
       </c>
       <c r="G15">
-        <v>46.27373936442808</v>
+        <v>46.74444467024903</v>
       </c>
       <c r="H15">
-        <v>13.19848080182846</v>
+        <v>18.32330656853199</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.344388972259219</v>
+        <v>8.825014056902818</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.533392070073424</v>
+        <v>11.82957858075372</v>
       </c>
       <c r="M15">
-        <v>15.49335710385472</v>
+        <v>17.86616598100259</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.22114490952166</v>
+        <v>19.8436867543706</v>
       </c>
       <c r="C16">
-        <v>15.00803433375083</v>
+        <v>11.06467110459962</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.221950407018118</v>
+        <v>14.26367691189576</v>
       </c>
       <c r="F16">
-        <v>34.51766583672945</v>
+        <v>42.64868311904029</v>
       </c>
       <c r="G16">
-        <v>45.17936037169115</v>
+        <v>46.61736631818353</v>
       </c>
       <c r="H16">
-        <v>13.06804296096523</v>
+        <v>18.33942570441257</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.401321189073844</v>
+        <v>8.837450380238074</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.437686425106582</v>
+        <v>11.82538029759018</v>
       </c>
       <c r="M16">
-        <v>15.09385733402459</v>
+        <v>17.7980335295678</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.64540865441742</v>
+        <v>19.66479117669135</v>
       </c>
       <c r="C17">
-        <v>14.75566432048591</v>
+        <v>10.95753583343444</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.225721376787897</v>
+        <v>14.26946335666365</v>
       </c>
       <c r="F17">
-        <v>34.13857465229633</v>
+        <v>42.63167069010466</v>
       </c>
       <c r="G17">
-        <v>44.51671231971547</v>
+        <v>46.54364223331224</v>
       </c>
       <c r="H17">
-        <v>12.99223085218501</v>
+        <v>18.3504285893089</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.436187839900934</v>
+        <v>8.845215531767234</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.379184586089001</v>
+        <v>11.82312722634403</v>
       </c>
       <c r="M17">
-        <v>14.84590848268865</v>
+        <v>17.75684525691672</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.3097627721211</v>
+        <v>19.561509213524</v>
       </c>
       <c r="C18">
-        <v>14.60903169711252</v>
+        <v>10.8952840878159</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.22807507693615</v>
+        <v>14.27285905346549</v>
       </c>
       <c r="F18">
-        <v>33.922847521732</v>
+        <v>42.62294347510861</v>
       </c>
       <c r="G18">
-        <v>44.1387779908501</v>
+        <v>46.50280108716242</v>
       </c>
       <c r="H18">
-        <v>12.95013230483529</v>
+        <v>18.35716579976113</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.456230318307203</v>
+        <v>8.849731943190333</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.345618283182739</v>
+        <v>11.82195026323098</v>
       </c>
       <c r="M18">
-        <v>14.70225788465848</v>
+        <v>17.73338395937316</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.19534147203179</v>
+        <v>19.52647713338362</v>
       </c>
       <c r="C19">
-        <v>14.55913021697341</v>
+        <v>10.87409958051491</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.228903174888046</v>
+        <v>14.27402037932673</v>
       </c>
       <c r="F19">
-        <v>33.85020357922347</v>
+        <v>42.62017034272983</v>
       </c>
       <c r="G19">
-        <v>44.0113667008154</v>
+        <v>46.48924202195691</v>
       </c>
       <c r="H19">
-        <v>12.93613348049684</v>
+        <v>18.359517003427</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.463015220504422</v>
+        <v>8.851269743627675</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.334267970400592</v>
+        <v>11.82157223425529</v>
       </c>
       <c r="M19">
-        <v>14.65344405380486</v>
+        <v>17.72548022122622</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.70716107278748</v>
+        <v>19.68387573751695</v>
       </c>
       <c r="C20">
-        <v>14.78268213331678</v>
+        <v>10.9690060731948</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.225300697639696</v>
+        <v>14.26884039755056</v>
       </c>
       <c r="F20">
-        <v>34.17868978096863</v>
+        <v>42.63337222094963</v>
       </c>
       <c r="G20">
-        <v>44.58692091185618</v>
+        <v>46.55132866987903</v>
       </c>
       <c r="H20">
-        <v>13.00014436722966</v>
+        <v>18.349215000708</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.432477674422087</v>
+        <v>8.844383736668476</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.385403796749662</v>
+        <v>11.82335476937306</v>
       </c>
       <c r="M20">
-        <v>14.87241081837793</v>
+        <v>17.76120622750755</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.37344424410687</v>
+        <v>20.20783512985922</v>
       </c>
       <c r="C21">
-        <v>15.51621674184734</v>
+        <v>11.28026703308995</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.215447506534018</v>
+        <v>14.25224192784159</v>
       </c>
       <c r="F21">
-        <v>35.31006731205441</v>
+        <v>42.69036209747226</v>
       </c>
       <c r="G21">
-        <v>46.55898869630182</v>
+        <v>46.77855681275854</v>
       </c>
       <c r="H21">
-        <v>13.23349054056571</v>
+        <v>18.31949011019982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.329663372468774</v>
+        <v>8.821845110054841</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.55816259447112</v>
+        <v>11.83076180827769</v>
       </c>
       <c r="M21">
-        <v>15.59560144972932</v>
+        <v>17.88394021200464</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.42357449528001</v>
+        <v>20.54604283006023</v>
       </c>
       <c r="C22">
-        <v>15.98271554793252</v>
+        <v>11.47784437324162</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.210790088828295</v>
+        <v>14.24199253638131</v>
       </c>
       <c r="F22">
-        <v>36.07027175701101</v>
+        <v>42.73700708230136</v>
       </c>
       <c r="G22">
-        <v>47.8765435387191</v>
+        <v>46.94082452726537</v>
       </c>
       <c r="H22">
-        <v>13.40025939855164</v>
+        <v>18.30371993887341</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.262142810389348</v>
+        <v>8.807557361430085</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.67170315481413</v>
+        <v>11.83665223768927</v>
       </c>
       <c r="M22">
-        <v>16.1278939326757</v>
+        <v>17.96607863592572</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.86659833888211</v>
+        <v>20.36595895487548</v>
       </c>
       <c r="C23">
-        <v>15.73490268519972</v>
+        <v>11.37293965258421</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.213105548268333</v>
+        <v>14.24740816140854</v>
       </c>
       <c r="F23">
-        <v>35.66262183682154</v>
+        <v>42.71125314725245</v>
       </c>
       <c r="G23">
-        <v>47.1706922959078</v>
+        <v>46.85296858382433</v>
       </c>
       <c r="H23">
-        <v>13.30990489924456</v>
+        <v>18.3118013626946</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.298220929463855</v>
+        <v>8.815142682613587</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.611050881670198</v>
+        <v>11.83341285632113</v>
       </c>
       <c r="M23">
-        <v>15.82023690994543</v>
+        <v>17.92206938751781</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.67925729274142</v>
+        <v>19.67524894571854</v>
       </c>
       <c r="C24">
-        <v>14.77047218447208</v>
+        <v>10.96382242544753</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.22549030965045</v>
+        <v>14.26912182245298</v>
       </c>
       <c r="F24">
-        <v>34.16054682555987</v>
+        <v>42.63259967724425</v>
       </c>
       <c r="G24">
-        <v>44.55517016694917</v>
+        <v>46.54784882146621</v>
       </c>
       <c r="H24">
-        <v>12.99656204521781</v>
+        <v>18.34976238249708</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.434155046691005</v>
+        <v>8.844759628826624</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.382591881152148</v>
+        <v>11.82325152840491</v>
       </c>
       <c r="M24">
-        <v>14.8604325392797</v>
+        <v>17.75923395117565</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14733583624175</v>
+        <v>18.91599064409192</v>
       </c>
       <c r="C25">
-        <v>13.67376717058572</v>
+        <v>10.49859612496616</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.245854800582428</v>
+        <v>14.29512512279172</v>
       </c>
       <c r="F25">
-        <v>32.62894269437863</v>
+        <v>42.58820004141089</v>
       </c>
       <c r="G25">
-        <v>41.85680743187514</v>
+        <v>46.27852910080739</v>
       </c>
       <c r="H25">
-        <v>12.7156799816793</v>
+        <v>18.40631980453043</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.580427749848356</v>
+        <v>8.878624033393315</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.13939428449607</v>
+        <v>11.81684334171432</v>
       </c>
       <c r="M25">
-        <v>13.79431976145465</v>
+        <v>17.59241140855192</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.3493160628503</v>
+        <v>21.12884864194646</v>
       </c>
       <c r="C2">
-        <v>10.13689606908455</v>
+        <v>12.81734760206233</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.31650721457518</v>
+        <v>8.266272642378652</v>
       </c>
       <c r="F2">
-        <v>42.59027401372364</v>
+        <v>31.5772038510875</v>
       </c>
       <c r="G2">
-        <v>46.13213581801816</v>
+        <v>39.97727635019726</v>
       </c>
       <c r="H2">
-        <v>18.46127899789551</v>
+        <v>12.55338212039108</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.905232056508321</v>
+        <v>5.688858296461715</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.81608460278643</v>
+        <v>6.963739873843167</v>
       </c>
       <c r="M2">
-        <v>17.47772239151322</v>
+        <v>12.97852874685793</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.96304917179411</v>
+        <v>19.66207298213584</v>
       </c>
       <c r="C3">
-        <v>9.880661142585586</v>
+        <v>12.2067840738733</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.33240089419212</v>
+        <v>8.283244313795297</v>
       </c>
       <c r="F3">
-        <v>42.61331257678801</v>
+        <v>30.91188700878589</v>
       </c>
       <c r="G3">
-        <v>46.06539803120612</v>
+        <v>38.7721582730288</v>
       </c>
       <c r="H3">
-        <v>18.50677104642342</v>
+        <v>12.46881528020626</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.924320961054518</v>
+        <v>5.763249402320985</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.818061323912</v>
+        <v>6.847196006439452</v>
       </c>
       <c r="M3">
-        <v>17.40533899344867</v>
+        <v>12.40871210681636</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72568667873684</v>
+        <v>18.76733979577787</v>
       </c>
       <c r="C4">
-        <v>9.718174030785473</v>
+        <v>11.81732299928114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.34285432992622</v>
+        <v>8.295140517598098</v>
       </c>
       <c r="F4">
-        <v>42.63809905264106</v>
+        <v>30.52678061366849</v>
       </c>
       <c r="G4">
-        <v>46.04042980811631</v>
+        <v>38.06675321950978</v>
       </c>
       <c r="H4">
-        <v>18.53874886742334</v>
+        <v>12.42863604961608</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.936566704456848</v>
+        <v>5.809506240840848</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.82051042864313</v>
+        <v>6.777004755420216</v>
       </c>
       <c r="M4">
-        <v>17.363613606642</v>
+        <v>12.05150262821858</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.62905275092927</v>
+        <v>18.39746185813668</v>
       </c>
       <c r="C5">
-        <v>9.650715248277894</v>
+        <v>11.65501877675131</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.34728925622496</v>
+        <v>8.300349939320553</v>
       </c>
       <c r="F5">
-        <v>42.65087019932982</v>
+        <v>30.37572275477268</v>
       </c>
       <c r="G5">
-        <v>46.03427594200512</v>
+        <v>37.78807946472928</v>
       </c>
       <c r="H5">
-        <v>18.55279405459972</v>
+        <v>12.41509633778188</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.941689534398749</v>
+        <v>5.828520358502531</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.82182014746824</v>
+        <v>6.748766275899822</v>
       </c>
       <c r="M5">
-        <v>17.34730594006519</v>
+        <v>11.90427508306446</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.61301659731319</v>
+        <v>18.33543732130849</v>
       </c>
       <c r="C6">
-        <v>9.639440261716075</v>
+        <v>11.62785353914138</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.34803625747217</v>
+        <v>8.301236542887178</v>
       </c>
       <c r="F6">
-        <v>42.65315194702333</v>
+        <v>30.35099407158653</v>
       </c>
       <c r="G6">
-        <v>46.03349672071391</v>
+        <v>37.74233891662722</v>
       </c>
       <c r="H6">
-        <v>18.55518738816279</v>
+        <v>12.41301568458369</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.942548200809544</v>
+        <v>5.83168805507853</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.82205647982099</v>
+        <v>6.744099966546189</v>
       </c>
       <c r="M6">
-        <v>17.34464042931711</v>
+        <v>11.87973360810505</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.72438287266877</v>
+        <v>18.76239223938895</v>
       </c>
       <c r="C7">
-        <v>9.717269221890245</v>
+        <v>11.81514856022749</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.34291343151795</v>
+        <v>8.295209321256998</v>
       </c>
       <c r="F7">
-        <v>42.63826048427504</v>
+        <v>30.52471962430939</v>
       </c>
       <c r="G7">
-        <v>46.04033054432315</v>
+        <v>38.06295924455299</v>
       </c>
       <c r="H7">
-        <v>18.53893418478698</v>
+        <v>12.42844213465086</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.936635255160521</v>
+        <v>5.80976198444547</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.82052682861475</v>
+        <v>6.77662241529792</v>
       </c>
       <c r="M7">
-        <v>17.36339084304939</v>
+        <v>12.04952353128202</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.21625525604764</v>
+        <v>20.63331716687838</v>
       </c>
       <c r="C8">
-        <v>10.04964736817116</v>
+        <v>12.60988452899916</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.3218434143766</v>
+        <v>8.271812270416145</v>
       </c>
       <c r="F8">
-        <v>42.59600649243534</v>
+        <v>31.34294486168506</v>
       </c>
       <c r="G8">
-        <v>46.10580049838266</v>
+        <v>39.5546463737459</v>
       </c>
       <c r="H8">
-        <v>18.47612306374394</v>
+        <v>12.521714334404</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.911705265710403</v>
+        <v>5.714399212809475</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.81651040906387</v>
+        <v>6.923284459298428</v>
       </c>
       <c r="M8">
-        <v>17.45220796812588</v>
+        <v>12.78368106089332</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.17325635128007</v>
+        <v>24.02380755112611</v>
       </c>
       <c r="C9">
-        <v>10.6583868451902</v>
+        <v>14.05079935323023</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.28601958776148</v>
+        <v>8.238115923177752</v>
       </c>
       <c r="F9">
-        <v>42.59775197119266</v>
+        <v>33.13306921873352</v>
       </c>
       <c r="G9">
-        <v>46.3612102861285</v>
+        <v>42.74927739025767</v>
       </c>
       <c r="H9">
-        <v>18.38519212644782</v>
+        <v>12.80307233747757</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.866958372729947</v>
+        <v>5.531106578331483</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.81838976402655</v>
+        <v>7.220832101163438</v>
       </c>
       <c r="M9">
-        <v>17.64737748847064</v>
+        <v>14.15847188861521</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.86404489104534</v>
+        <v>26.28623479148031</v>
       </c>
       <c r="C10">
-        <v>11.07680972055649</v>
+        <v>15.0366320967431</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.26302577508131</v>
+        <v>8.221545580454436</v>
       </c>
       <c r="F10">
-        <v>42.65076764827555</v>
+        <v>34.56123688586733</v>
       </c>
       <c r="G10">
-        <v>46.62599005964792</v>
+        <v>45.2554069926688</v>
       </c>
       <c r="H10">
-        <v>18.33822563453939</v>
+        <v>13.07690065552469</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.836571099030662</v>
+        <v>5.397340341839222</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.82565347372796</v>
+        <v>7.444372682650443</v>
       </c>
       <c r="M10">
-        <v>17.80276405482154</v>
+        <v>15.12200817414509</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.17411782276275</v>
+        <v>27.26775671822651</v>
       </c>
       <c r="C11">
-        <v>11.26043518074786</v>
+        <v>15.46944166346417</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.2532825567825</v>
+        <v>8.215984400386764</v>
       </c>
       <c r="F11">
-        <v>42.68612100642124</v>
+        <v>35.23554804027984</v>
       </c>
       <c r="G11">
-        <v>46.76302799195534</v>
+        <v>46.42953519041109</v>
       </c>
       <c r="H11">
-        <v>18.32120337644906</v>
+        <v>13.21755211269588</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.823279731754239</v>
+        <v>5.336340944915043</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.83022051798358</v>
+        <v>7.546929746983208</v>
       </c>
       <c r="M11">
-        <v>17.87587321084625</v>
+        <v>15.5492924054865</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.2908184289458</v>
+        <v>27.63275175796996</v>
       </c>
       <c r="C12">
-        <v>11.32896896725866</v>
+        <v>15.63111805902847</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.24969574695224</v>
+        <v>8.214182346261373</v>
       </c>
       <c r="F12">
-        <v>42.7011214666341</v>
+        <v>35.49445611631482</v>
       </c>
       <c r="G12">
-        <v>46.81728448045398</v>
+        <v>46.87906550419957</v>
       </c>
       <c r="H12">
-        <v>18.31538459773125</v>
+        <v>13.27325062014247</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.8183225457941</v>
+        <v>5.313188910460586</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.83213013370555</v>
+        <v>7.585875312024245</v>
       </c>
       <c r="M12">
-        <v>17.90388965895772</v>
+        <v>15.70945906033327</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.26571855874285</v>
+        <v>27.55443806630292</v>
       </c>
       <c r="C13">
-        <v>11.31425404361856</v>
+        <v>15.59639617256766</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.25046366675829</v>
+        <v>8.21455659549655</v>
       </c>
       <c r="F13">
-        <v>42.69781917718402</v>
+        <v>35.43853669127705</v>
       </c>
       <c r="G13">
-        <v>46.8054946735353</v>
+        <v>46.78203167201574</v>
       </c>
       <c r="H13">
-        <v>18.31660984186119</v>
+        <v>13.26114456978716</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.819386794241671</v>
+        <v>5.31817800672851</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.83171087352829</v>
+        <v>7.577483036205298</v>
       </c>
       <c r="M13">
-        <v>17.89784134078404</v>
+        <v>15.6750376521396</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.18373387402394</v>
+        <v>27.29791805978168</v>
       </c>
       <c r="C14">
-        <v>11.26609375181894</v>
+        <v>15.48278711350956</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.25298541071951</v>
+        <v>8.215829932709735</v>
       </c>
       <c r="F14">
-        <v>42.68732280029599</v>
+        <v>35.25677700090802</v>
       </c>
       <c r="G14">
-        <v>46.76744448748209</v>
+        <v>46.46641954004346</v>
       </c>
       <c r="H14">
-        <v>18.32071207796183</v>
+        <v>13.2220849056929</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.822870381620634</v>
+        <v>5.334437465971618</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.83037402052155</v>
+        <v>7.550131707174111</v>
       </c>
       <c r="M14">
-        <v>17.87817159330621</v>
+        <v>15.56250241944932</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.13341911455726</v>
+        <v>27.13992668439136</v>
       </c>
       <c r="C15">
-        <v>11.2364628097135</v>
+        <v>15.41291050149736</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.25454342098532</v>
+        <v>8.21665008653479</v>
       </c>
       <c r="F15">
-        <v>42.68110340257181</v>
+        <v>35.14590866405896</v>
       </c>
       <c r="G15">
-        <v>46.74444467024903</v>
+        <v>46.27373936442807</v>
       </c>
       <c r="H15">
-        <v>18.32330656853199</v>
+        <v>13.19848080182851</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.825014056902818</v>
+        <v>5.344388972259155</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.82957858075372</v>
+        <v>7.533392070073386</v>
       </c>
       <c r="M15">
-        <v>17.86616598100259</v>
+        <v>15.49335710385472</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.8436867543706</v>
+        <v>26.22114490952159</v>
       </c>
       <c r="C16">
-        <v>11.06467110459962</v>
+        <v>15.00803433375099</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.26367691189576</v>
+        <v>8.221950407018129</v>
       </c>
       <c r="F16">
-        <v>42.64868311904029</v>
+        <v>34.51766583672951</v>
       </c>
       <c r="G16">
-        <v>46.61736631818353</v>
+        <v>45.1793603716912</v>
       </c>
       <c r="H16">
-        <v>18.33942570441257</v>
+        <v>13.06804296096526</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.837450380238074</v>
+        <v>5.401321189073878</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.82538029759018</v>
+        <v>7.437686425106517</v>
       </c>
       <c r="M16">
-        <v>17.7980335295678</v>
+        <v>15.09385733402459</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.66479117669135</v>
+        <v>25.64540865441748</v>
       </c>
       <c r="C17">
-        <v>10.95753583343444</v>
+        <v>14.75566432048577</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.26946335666365</v>
+        <v>8.225721376788089</v>
       </c>
       <c r="F17">
-        <v>42.63167069010466</v>
+        <v>34.13857465229636</v>
       </c>
       <c r="G17">
-        <v>46.54364223331224</v>
+        <v>44.51671231971545</v>
       </c>
       <c r="H17">
-        <v>18.3504285893089</v>
+        <v>12.99223085218501</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.845215531767234</v>
+        <v>5.436187839900935</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.82312722634403</v>
+        <v>7.379184586089156</v>
       </c>
       <c r="M17">
-        <v>17.75684525691672</v>
+        <v>14.84590848268866</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.561509213524</v>
+        <v>25.30976277212109</v>
       </c>
       <c r="C18">
-        <v>10.8952840878159</v>
+        <v>14.60903169711243</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.27285905346549</v>
+        <v>8.228075076936085</v>
       </c>
       <c r="F18">
-        <v>42.62294347510861</v>
+        <v>33.922847521732</v>
       </c>
       <c r="G18">
-        <v>46.50280108716242</v>
+        <v>44.13877799085009</v>
       </c>
       <c r="H18">
-        <v>18.35716579976113</v>
+        <v>12.95013230483532</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.849731943190333</v>
+        <v>5.456230318307168</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.82195026323098</v>
+        <v>7.345618283182735</v>
       </c>
       <c r="M18">
-        <v>17.73338395937316</v>
+        <v>14.70225788465848</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.52647713338362</v>
+        <v>25.19534147203177</v>
       </c>
       <c r="C19">
-        <v>10.87409958051491</v>
+        <v>14.55913021697338</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.27402037932673</v>
+        <v>8.228903174887915</v>
       </c>
       <c r="F19">
-        <v>42.62017034272983</v>
+        <v>33.8502035792235</v>
       </c>
       <c r="G19">
-        <v>46.48924202195691</v>
+        <v>44.0113667008155</v>
       </c>
       <c r="H19">
-        <v>18.359517003427</v>
+        <v>12.93613348049686</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.851269743627675</v>
+        <v>5.463015220504388</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.82157223425529</v>
+        <v>7.334267970400512</v>
       </c>
       <c r="M19">
-        <v>17.72548022122622</v>
+        <v>14.65344405380483</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.68387573751695</v>
+        <v>25.70716107278746</v>
       </c>
       <c r="C20">
-        <v>10.9690060731948</v>
+        <v>14.78268213331677</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.26884039755056</v>
+        <v>8.225300697639566</v>
       </c>
       <c r="F20">
-        <v>42.63337222094963</v>
+        <v>34.17868978096863</v>
       </c>
       <c r="G20">
-        <v>46.55132866987903</v>
+        <v>44.58692091185624</v>
       </c>
       <c r="H20">
-        <v>18.349215000708</v>
+        <v>13.00014436722967</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.844383736668476</v>
+        <v>5.43247767442212</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.82335476937306</v>
+        <v>7.385403796749625</v>
       </c>
       <c r="M20">
-        <v>17.76120622750755</v>
+        <v>14.87241081837793</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.20783512985922</v>
+        <v>27.37344424410687</v>
       </c>
       <c r="C21">
-        <v>11.28026703308995</v>
+        <v>15.51621674184725</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.25224192784159</v>
+        <v>8.215447506534021</v>
       </c>
       <c r="F21">
-        <v>42.69036209747226</v>
+        <v>35.31006731205438</v>
       </c>
       <c r="G21">
-        <v>46.77855681275854</v>
+        <v>46.55898869630185</v>
       </c>
       <c r="H21">
-        <v>18.31949011019982</v>
+        <v>13.23349054056573</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.821845110054841</v>
+        <v>5.329663372468774</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.83076180827769</v>
+        <v>7.558162594471098</v>
       </c>
       <c r="M21">
-        <v>17.88394021200464</v>
+        <v>15.59560144972931</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.54604283006023</v>
+        <v>28.42357449528002</v>
       </c>
       <c r="C22">
-        <v>11.47784437324162</v>
+        <v>15.98271554793242</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.24199253638131</v>
+        <v>8.210790088828237</v>
       </c>
       <c r="F22">
-        <v>42.73700708230136</v>
+        <v>36.07027175701099</v>
       </c>
       <c r="G22">
-        <v>46.94082452726537</v>
+        <v>47.8765435387191</v>
       </c>
       <c r="H22">
-        <v>18.30371993887341</v>
+        <v>13.40025939855159</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.807557361430085</v>
+        <v>5.262142810389283</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.83665223768927</v>
+        <v>7.671703154814126</v>
       </c>
       <c r="M22">
-        <v>17.96607863592572</v>
+        <v>16.12789393267572</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.36595895487548</v>
+        <v>27.86659833888211</v>
       </c>
       <c r="C23">
-        <v>11.37293965258421</v>
+        <v>15.73490268519965</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.24740816140854</v>
+        <v>8.213105548268263</v>
       </c>
       <c r="F23">
-        <v>42.71125314725245</v>
+        <v>35.66262183682149</v>
       </c>
       <c r="G23">
-        <v>46.85296858382433</v>
+        <v>47.17069229590774</v>
       </c>
       <c r="H23">
-        <v>18.3118013626946</v>
+        <v>13.30990489924457</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.815142682613587</v>
+        <v>5.29822092946389</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.83341285632113</v>
+        <v>7.611050881670191</v>
       </c>
       <c r="M23">
-        <v>17.92206938751781</v>
+        <v>15.82023690994543</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.67524894571854</v>
+        <v>25.67925729274143</v>
       </c>
       <c r="C24">
-        <v>10.96382242544753</v>
+        <v>14.7704721844721</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.26912182245298</v>
+        <v>8.225490309650507</v>
       </c>
       <c r="F24">
-        <v>42.63259967724425</v>
+        <v>34.16054682555988</v>
       </c>
       <c r="G24">
-        <v>46.54784882146621</v>
+        <v>44.55517016694923</v>
       </c>
       <c r="H24">
-        <v>18.34976238249708</v>
+        <v>12.9965620452178</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.844759628826624</v>
+        <v>5.434155046691005</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.82325152840491</v>
+        <v>7.382591881152146</v>
       </c>
       <c r="M24">
-        <v>17.75923395117565</v>
+        <v>14.8604325392797</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.91599064409192</v>
+        <v>23.14733583624175</v>
       </c>
       <c r="C25">
-        <v>10.49859612496616</v>
+        <v>13.67376717058572</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.29512512279172</v>
+        <v>8.24585480058256</v>
       </c>
       <c r="F25">
-        <v>42.58820004141089</v>
+        <v>32.62894269437856</v>
       </c>
       <c r="G25">
-        <v>46.27852910080739</v>
+        <v>41.85680743187505</v>
       </c>
       <c r="H25">
-        <v>18.40631980453043</v>
+        <v>12.71567998167925</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.878624033393315</v>
+        <v>5.580427749848356</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.81684334171432</v>
+        <v>7.139394284496118</v>
       </c>
       <c r="M25">
-        <v>17.59241140855192</v>
+        <v>13.79431976145466</v>
       </c>
       <c r="N25">
         <v>0</v>
